--- a/img/result.xlsx
+++ b/img/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,87 +15,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5.2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>16.6</t>
-  </si>
-  <si>
-    <t>0.114286</t>
-  </si>
-  <si>
-    <t>0.472973</t>
-  </si>
-  <si>
-    <t>0.433333</t>
-  </si>
-  <si>
-    <t>0.888889</t>
-  </si>
-  <si>
-    <t>0.566667</t>
-  </si>
-  <si>
-    <t>0.347826</t>
-  </si>
-  <si>
-    <t>0.804348</t>
-  </si>
-  <si>
-    <t>0.466667</t>
-  </si>
-  <si>
-    <t>0.305556</t>
-  </si>
-  <si>
-    <t>0.0113636</t>
-  </si>
-  <si>
-    <t>0.576923</t>
-  </si>
-  <si>
-    <t>0.294118</t>
-  </si>
-  <si>
-    <t>0.653846</t>
-  </si>
-  <si>
-    <t>0.166667</t>
-  </si>
-  <si>
-    <t>0.323529</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>0.0142857</t>
+  </si>
+  <si>
+    <t>0.216216</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.0333333</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.0434783</t>
+  </si>
+  <si>
+    <t>0.0217391</t>
+  </si>
+  <si>
+    <t>0.0555556</t>
+  </si>
+  <si>
+    <t>0.173077</t>
+  </si>
+  <si>
+    <t>0.264706</t>
+  </si>
+  <si>
+    <t>0.423077</t>
+  </si>
+  <si>
+    <t>0.441176</t>
   </si>
 </sst>
 </file>
@@ -456,49 +483,49 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -515,164 +542,164 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="T4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/img/result.xlsx
+++ b/img/result.xlsx
@@ -15,7 +15,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
   <si>
     <t>9</t>
   </si>
@@ -23,67 +50,37 @@
     <t>15</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
   <si>
     <t>5.2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>8.2</t>
   </si>
   <si>
+    <t>5.19999</t>
+  </si>
+  <si>
     <t>17.6</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
   </si>
   <si>
     <t>0.0142857</t>
@@ -474,22 +471,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -498,34 +495,34 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -533,22 +530,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -557,34 +554,34 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
       </c>
       <c r="N3" t="s">
         <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T3" t="s">
         <v>13</v>
@@ -592,114 +589,114 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
       <c r="R4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
         <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/img/result.xlsx
+++ b/img/result.xlsx
@@ -15,72 +15,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>4.99986</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>5.19999</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
   <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>5.19999</t>
-  </si>
-  <si>
-    <t>17.6</t>
   </si>
   <si>
     <t>0.0142857</t>
@@ -471,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
       </c>
       <c r="P2" t="s">
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
         <v>13</v>
@@ -530,49 +533,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
         <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
         <v>14</v>
@@ -595,19 +598,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -631,13 +634,13 @@
         <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
         <v>13</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
         <v>13</v>
@@ -651,52 +654,52 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/img/result.xlsx
+++ b/img/result.xlsx
@@ -15,81 +15,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>15</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4.99986</t>
-  </si>
-  <si>
-    <t>17.6</t>
-  </si>
-  <si>
-    <t>5.19999</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>6.2</t>
   </si>
   <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0.0142857</t>
-  </si>
-  <si>
-    <t>0.216216</t>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>0.243243</t>
   </si>
   <si>
     <t>0.6</t>
@@ -98,31 +83,34 @@
     <t>0.75</t>
   </si>
   <si>
-    <t>0.0333333</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>0.0434783</t>
-  </si>
-  <si>
-    <t>0.0217391</t>
-  </si>
-  <si>
-    <t>0.0555556</t>
-  </si>
-  <si>
-    <t>0.173077</t>
-  </si>
-  <si>
-    <t>0.264706</t>
-  </si>
-  <si>
-    <t>0.423077</t>
-  </si>
-  <si>
-    <t>0.441176</t>
+    <t>0.130435</t>
+  </si>
+  <si>
+    <t>0.173913</t>
+  </si>
+  <si>
+    <t>0.433333</t>
+  </si>
+  <si>
+    <t>0.0227273</t>
+  </si>
+  <si>
+    <t>0.269231</t>
+  </si>
+  <si>
+    <t>0.147059</t>
+  </si>
+  <si>
+    <t>0.346154</t>
+  </si>
+  <si>
+    <t>0.0277778</t>
+  </si>
+  <si>
+    <t>0.470588</t>
   </si>
 </sst>
 </file>
@@ -477,55 +465,55 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -536,170 +524,170 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
         <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/img/result.xlsx
+++ b/img/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>4</t>
   </si>
@@ -26,91 +26,70 @@
     <t>5</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>20.2</t>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>17.2</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>0.243243</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.130435</t>
-  </si>
-  <si>
-    <t>0.173913</t>
-  </si>
-  <si>
-    <t>0.433333</t>
-  </si>
-  <si>
-    <t>0.0227273</t>
-  </si>
-  <si>
-    <t>0.269231</t>
-  </si>
-  <si>
-    <t>0.147059</t>
-  </si>
-  <si>
-    <t>0.346154</t>
-  </si>
-  <si>
-    <t>0.0277778</t>
-  </si>
-  <si>
-    <t>0.470588</t>
+    <t>0.0428571</t>
+  </si>
+  <si>
+    <t>0.432432</t>
+  </si>
+  <si>
+    <t>0.533333</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.0666667</t>
+  </si>
+  <si>
+    <t>0.326087</t>
+  </si>
+  <si>
+    <t>0.347826</t>
+  </si>
+  <si>
+    <t>0.444444</t>
+  </si>
+  <si>
+    <t>0.0340909</t>
+  </si>
+  <si>
+    <t>0.538462</t>
+  </si>
+  <si>
+    <t>0.588235</t>
+  </si>
+  <si>
+    <t>0.384615</t>
+  </si>
+  <si>
+    <t>0.138889</t>
+  </si>
+  <si>
+    <t>0.235294</t>
   </si>
 </sst>
 </file>
@@ -465,55 +444,55 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -524,170 +503,170 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="N5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="O5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="P5" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
